--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1552,28 +1552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.1549346294673</v>
+        <v>140.2416999031558</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.4046442007375</v>
+        <v>191.884880834554</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.1954992103944</v>
+        <v>173.57165711988</v>
       </c>
       <c r="AD2" t="n">
-        <v>101154.9346294673</v>
+        <v>140241.6999031558</v>
       </c>
       <c r="AE2" t="n">
-        <v>138404.6442007375</v>
+        <v>191884.880834554</v>
       </c>
       <c r="AF2" t="n">
         <v>1.890272371469007e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.298611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>125195.4992103944</v>
+        <v>173571.65711988</v>
       </c>
     </row>
     <row r="3">
@@ -1658,28 +1658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.35160299648534</v>
+        <v>127.404202851393</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.8865610173733</v>
+        <v>174.320051017942</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.3493172992607</v>
+        <v>157.6831900085664</v>
       </c>
       <c r="AD3" t="n">
-        <v>88351.60299648534</v>
+        <v>127404.202851393</v>
       </c>
       <c r="AE3" t="n">
-        <v>120886.5610173733</v>
+        <v>174320.051017942</v>
       </c>
       <c r="AF3" t="n">
         <v>2.13917798705012e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.337962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>109349.3172992607</v>
+        <v>157683.1900085664</v>
       </c>
     </row>
   </sheetData>
@@ -1955,28 +1955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.37481868982584</v>
+        <v>127.0970152902578</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.9183257532058</v>
+        <v>173.8997434446383</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.3780504532876</v>
+        <v>157.3029960001533</v>
       </c>
       <c r="AD2" t="n">
-        <v>88374.81868982584</v>
+        <v>127097.0152902578</v>
       </c>
       <c r="AE2" t="n">
-        <v>120918.3257532058</v>
+        <v>173899.7434446383</v>
       </c>
       <c r="AF2" t="n">
         <v>2.21094213438894e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.766203703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>109378.0504532876</v>
+        <v>157302.9960001533</v>
       </c>
     </row>
     <row r="3">
@@ -2061,28 +2061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.83008679908299</v>
+        <v>115.8385798604833</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.8047554315312</v>
+        <v>158.4954554025119</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.4661963166983</v>
+        <v>143.3688715887085</v>
       </c>
       <c r="AD3" t="n">
-        <v>86830.08679908299</v>
+        <v>115838.5798604833</v>
       </c>
       <c r="AE3" t="n">
-        <v>118804.7554315312</v>
+        <v>158495.4554025119</v>
       </c>
       <c r="AF3" t="n">
         <v>2.366383353928012e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.256944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>107466.1963166983</v>
+        <v>143368.8715887085</v>
       </c>
     </row>
   </sheetData>
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.68520245644827</v>
+        <v>121.1071294153539</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.5017859314353</v>
+        <v>165.7041173354843</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.5738961864346</v>
+        <v>149.8895489442208</v>
       </c>
       <c r="AD2" t="n">
-        <v>83685.20245644827</v>
+        <v>121107.1294153538</v>
       </c>
       <c r="AE2" t="n">
-        <v>114501.7859314353</v>
+        <v>165704.1173354842</v>
       </c>
       <c r="AF2" t="n">
         <v>3.058388912295261e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.835648148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>103573.8961864346</v>
+        <v>149889.5489442208</v>
       </c>
     </row>
   </sheetData>
@@ -2655,28 +2655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.61473526111115</v>
+        <v>122.443530548541</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.7736137228676</v>
+        <v>167.5326403237669</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.7243425184744</v>
+        <v>151.5435602648505</v>
       </c>
       <c r="AD2" t="n">
-        <v>84614.73526111116</v>
+        <v>122443.530548541</v>
       </c>
       <c r="AE2" t="n">
-        <v>115773.6137228676</v>
+        <v>167532.6403237669</v>
       </c>
       <c r="AF2" t="n">
         <v>2.79751425494721e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.418981481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>104724.3425184744</v>
+        <v>151543.5602648505</v>
       </c>
     </row>
   </sheetData>
@@ -2952,28 +2952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.53800666950802</v>
+        <v>129.4756596265118</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.6145832138953</v>
+        <v>177.1543095638813</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.5306650966781</v>
+        <v>160.2469508967891</v>
       </c>
       <c r="AD2" t="n">
-        <v>92538.00666950802</v>
+        <v>129475.6596265118</v>
       </c>
       <c r="AE2" t="n">
-        <v>126614.5832138953</v>
+        <v>177154.3095638813</v>
       </c>
       <c r="AF2" t="n">
         <v>3.252047127899005e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>114530.6650966781</v>
+        <v>160246.9508967891</v>
       </c>
     </row>
   </sheetData>
@@ -3249,28 +3249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.78401342012296</v>
+        <v>127.6197282154295</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.4782040355955</v>
+        <v>174.6149423293246</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.8844947382002</v>
+        <v>157.9499373070733</v>
       </c>
       <c r="AD2" t="n">
-        <v>88784.01342012297</v>
+        <v>127619.7282154295</v>
       </c>
       <c r="AE2" t="n">
-        <v>121478.2040355955</v>
+        <v>174614.9423293246</v>
       </c>
       <c r="AF2" t="n">
         <v>2.146773206424734e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.800925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>109884.4947382002</v>
+        <v>157949.9373070733</v>
       </c>
     </row>
     <row r="3">
@@ -3355,28 +3355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.25704811755301</v>
+        <v>125.9912776863743</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.3889427436656</v>
+        <v>172.3868244733054</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.9946296116748</v>
+        <v>155.9344678920489</v>
       </c>
       <c r="AD3" t="n">
-        <v>87257.04811755301</v>
+        <v>125991.2776863743</v>
       </c>
       <c r="AE3" t="n">
-        <v>119388.9427436656</v>
+        <v>172386.8244733054</v>
       </c>
       <c r="AF3" t="n">
         <v>2.298922702277477e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>107994.6296116748</v>
+        <v>155934.4678920489</v>
       </c>
     </row>
   </sheetData>
@@ -3652,28 +3652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.7471570901585</v>
+        <v>138.4720761537484</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.2149490984658</v>
+        <v>189.4636035503261</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.9284697459538</v>
+        <v>171.3814631413741</v>
       </c>
       <c r="AD2" t="n">
-        <v>101747.1570901585</v>
+        <v>138472.0761537484</v>
       </c>
       <c r="AE2" t="n">
-        <v>139214.9490984658</v>
+        <v>189463.6035503261</v>
       </c>
       <c r="AF2" t="n">
         <v>3.323314966551294e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.039351851851851</v>
       </c>
       <c r="AH2" t="n">
-        <v>125928.4697459538</v>
+        <v>171381.4631413741</v>
       </c>
     </row>
   </sheetData>
@@ -3949,28 +3949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.83256653385502</v>
+        <v>124.0848564417415</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.4399041971588</v>
+        <v>169.7783748210306</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.2316045685532</v>
+        <v>153.5749650136043</v>
       </c>
       <c r="AD2" t="n">
-        <v>85832.56653385502</v>
+        <v>124084.8564417415</v>
       </c>
       <c r="AE2" t="n">
-        <v>117439.9041971588</v>
+        <v>169778.3748210307</v>
       </c>
       <c r="AF2" t="n">
         <v>2.544252691400466e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.337962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>106231.6045685532</v>
+        <v>153574.9650136043</v>
       </c>
     </row>
   </sheetData>
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.00964333428486</v>
+        <v>125.5125198415189</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.0504326044695</v>
+        <v>171.7317668686691</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.6884264050615</v>
+        <v>155.3419280658197</v>
       </c>
       <c r="AD2" t="n">
-        <v>87009.64333428486</v>
+        <v>125512.5198415189</v>
       </c>
       <c r="AE2" t="n">
-        <v>119050.4326044695</v>
+        <v>171731.7668686691</v>
       </c>
       <c r="AF2" t="n">
         <v>2.362746772892581e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.465277777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>107688.4264050615</v>
+        <v>155341.9280658197</v>
       </c>
     </row>
     <row r="3">
@@ -4352,28 +4352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.65548794619292</v>
+        <v>125.158364453427</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.5658615782494</v>
+        <v>171.2471958424489</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.250102157484</v>
+        <v>154.9036038182421</v>
       </c>
       <c r="AD3" t="n">
-        <v>86655.48794619292</v>
+        <v>125158.364453427</v>
       </c>
       <c r="AE3" t="n">
-        <v>118565.8615782494</v>
+        <v>171247.1958424489</v>
       </c>
       <c r="AF3" t="n">
         <v>2.404185378909112e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.326388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>107250.102157484</v>
+        <v>154903.6038182421</v>
       </c>
     </row>
   </sheetData>
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.0643298008159</v>
+        <v>139.0483499001957</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.912430560088</v>
+        <v>190.2520867136184</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.8457003452731</v>
+        <v>172.0946945782051</v>
       </c>
       <c r="AD2" t="n">
-        <v>100064.3298008159</v>
+        <v>139048.3499001958</v>
       </c>
       <c r="AE2" t="n">
-        <v>136912.430560088</v>
+        <v>190252.0867136184</v>
       </c>
       <c r="AF2" t="n">
         <v>1.989097928152479e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>123845.7003452731</v>
+        <v>172094.6945782051</v>
       </c>
     </row>
     <row r="3">
@@ -4755,28 +4755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.09439472578947</v>
+        <v>127.0442494063885</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.5346373141793</v>
+        <v>173.8275468344619</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.0309807003715</v>
+        <v>157.2376897331235</v>
       </c>
       <c r="AD3" t="n">
-        <v>88094.39472578948</v>
+        <v>127044.2494063885</v>
       </c>
       <c r="AE3" t="n">
-        <v>120534.6373141793</v>
+        <v>173827.5468344619</v>
       </c>
       <c r="AF3" t="n">
         <v>2.180174708204822e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.349537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>109030.9807003715</v>
+        <v>157237.6897331235</v>
       </c>
     </row>
   </sheetData>
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.89506893468671</v>
+        <v>122.8725516650252</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.1571786225023</v>
+        <v>168.1196459424162</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.0713005224248</v>
+        <v>152.0745428911236</v>
       </c>
       <c r="AD2" t="n">
-        <v>84895.0689346867</v>
+        <v>122872.5516650252</v>
       </c>
       <c r="AE2" t="n">
-        <v>116157.1786225023</v>
+        <v>168119.6459424162</v>
       </c>
       <c r="AF2" t="n">
         <v>2.725072549773082e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.326388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>105071.3005224248</v>
+        <v>152074.5428911236</v>
       </c>
     </row>
   </sheetData>
@@ -5349,28 +5349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.89993782868123</v>
+        <v>121.503671303268</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.7955963411803</v>
+        <v>166.2466834407215</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.8396657430391</v>
+        <v>150.3803333018707</v>
       </c>
       <c r="AD2" t="n">
-        <v>83899.93782868123</v>
+        <v>121503.671303268</v>
       </c>
       <c r="AE2" t="n">
-        <v>114795.5963411803</v>
+        <v>166246.6834407215</v>
       </c>
       <c r="AF2" t="n">
         <v>2.979416947985723e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.627314814814814</v>
       </c>
       <c r="AH2" t="n">
-        <v>103839.6657430391</v>
+        <v>150380.3333018707</v>
       </c>
     </row>
   </sheetData>
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.73318121857622</v>
+        <v>129.8897310814805</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.8816296424236</v>
+        <v>177.7208603961126</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.7722249888699</v>
+        <v>160.7594309127514</v>
       </c>
       <c r="AD2" t="n">
-        <v>92733.18121857622</v>
+        <v>129889.7310814805</v>
       </c>
       <c r="AE2" t="n">
-        <v>126881.6296424236</v>
+        <v>177720.8603961126</v>
       </c>
       <c r="AF2" t="n">
         <v>3.170824204614571e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.043981481481483</v>
       </c>
       <c r="AH2" t="n">
-        <v>114772.2249888699</v>
+        <v>160759.4309127514</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.1757400680859</v>
+        <v>156.6969975213256</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.1155522885836</v>
+        <v>214.3997449922182</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.5978574737213</v>
+        <v>193.9377342421542</v>
       </c>
       <c r="AD2" t="n">
-        <v>111175.7400680859</v>
+        <v>156696.9975213257</v>
       </c>
       <c r="AE2" t="n">
-        <v>152115.5522885836</v>
+        <v>214399.7449922182</v>
       </c>
       <c r="AF2" t="n">
         <v>3.333616733432781e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.11574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>137597.8574737213</v>
+        <v>193937.7342421542</v>
       </c>
     </row>
   </sheetData>
@@ -9061,28 +9061,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.04836634424156</v>
+        <v>124.4286218866246</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.7351710181452</v>
+        <v>170.2487298685806</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.4986915385544</v>
+        <v>154.0004300355636</v>
       </c>
       <c r="AD2" t="n">
-        <v>86048.36634424156</v>
+        <v>124428.6218866246</v>
       </c>
       <c r="AE2" t="n">
-        <v>117735.1710181452</v>
+        <v>170248.7298685806</v>
       </c>
       <c r="AF2" t="n">
         <v>2.494456018433323e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.268518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>106498.6915385544</v>
+        <v>154000.4300355636</v>
       </c>
     </row>
   </sheetData>
@@ -9358,28 +9358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.42085401595014</v>
+        <v>128.3661691877893</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.34955743423</v>
+        <v>175.6362557983583</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.6726873914215</v>
+        <v>158.8737780520453</v>
       </c>
       <c r="AD2" t="n">
-        <v>89420.85401595014</v>
+        <v>128366.1691877893</v>
       </c>
       <c r="AE2" t="n">
-        <v>122349.55743423</v>
+        <v>175636.2557983584</v>
       </c>
       <c r="AF2" t="n">
         <v>2.069714726424957e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>110672.6873914215</v>
+        <v>158873.7780520453</v>
       </c>
     </row>
     <row r="3">
@@ -9464,28 +9464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.59771147159633</v>
+        <v>126.4415414169503</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.8550533736739</v>
+        <v>173.002895173713</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.4162552973456</v>
+        <v>156.4917416694704</v>
       </c>
       <c r="AD3" t="n">
-        <v>87597.71147159633</v>
+        <v>126441.5414169503</v>
       </c>
       <c r="AE3" t="n">
-        <v>119855.0533736739</v>
+        <v>173002.895173713</v>
       </c>
       <c r="AF3" t="n">
         <v>2.245832060777902e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>108416.2552973456</v>
+        <v>156491.7416694704</v>
       </c>
     </row>
   </sheetData>
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.6501268131655</v>
+        <v>193.8236468985439</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.7612673824956</v>
+        <v>265.1980645822752</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.7005429165748</v>
+        <v>239.8879335064417</v>
       </c>
       <c r="AD2" t="n">
-        <v>130650.1268131655</v>
+        <v>193823.6468985439</v>
       </c>
       <c r="AE2" t="n">
-        <v>178761.2673824956</v>
+        <v>265198.0645822752</v>
       </c>
       <c r="AF2" t="n">
         <v>3.15474185621992e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.59259259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>161700.5429165748</v>
+        <v>239887.9335064417</v>
       </c>
     </row>
   </sheetData>
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.29357670245855</v>
+        <v>122.0660081445161</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.3341904144036</v>
+        <v>167.0160975154674</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.3268571538357</v>
+        <v>151.0763155772025</v>
       </c>
       <c r="AD2" t="n">
-        <v>84293.57670245855</v>
+        <v>122066.0081445161</v>
       </c>
       <c r="AE2" t="n">
-        <v>115334.1904144036</v>
+        <v>167016.0975154674</v>
       </c>
       <c r="AF2" t="n">
         <v>2.878808617267652e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.523148148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>104326.8571538357</v>
+        <v>151076.3155772025</v>
       </c>
     </row>
   </sheetData>
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.25148827245884</v>
+        <v>123.3697948424618</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.6448472845533</v>
+        <v>168.7999959946054</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.5124267718171</v>
+        <v>152.6899612892095</v>
       </c>
       <c r="AD2" t="n">
-        <v>85251.48827245884</v>
+        <v>123369.7948424618</v>
       </c>
       <c r="AE2" t="n">
-        <v>116644.8472845533</v>
+        <v>168799.9959946054</v>
       </c>
       <c r="AF2" t="n">
         <v>2.64815144538925e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.280092592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>105512.4267718171</v>
+        <v>152689.9612892095</v>
       </c>
     </row>
   </sheetData>
